--- a/src/assets/tpl-import-file/import_the_nhan_vien.xlsx
+++ b/src/assets/tpl-import-file/import_the_nhan_vien.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unicloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B7FE2-925E-46C1-AD90-83B3688E7A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B241192-C84A-405C-8E62-AA705EB41A55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11685"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Loaixe" sheetId="3" r:id="rId2"/>
-    <sheet name="DM_ToChuc" sheetId="2" r:id="rId3"/>
+    <sheet name="import_the_nv" sheetId="1" r:id="rId1"/>
+    <sheet name="DM_ToChuc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Danh sách thẻ nhân viên</t>
   </si>
@@ -51,9 +49,6 @@
     <t>Tổ chức(*)</t>
   </si>
   <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
     <t>Tên nhân viên(*)</t>
   </si>
   <si>
@@ -63,18 +58,6 @@
     <t>Ngày hết hạn</t>
   </si>
   <si>
-    <t>Vé gửi xe</t>
-  </si>
-  <si>
-    <t>Tên xe</t>
-  </si>
-  <si>
-    <t>Biển số xe</t>
-  </si>
-  <si>
-    <t>Loại xe</t>
-  </si>
-  <si>
     <t>Thẻ S-Service</t>
   </si>
   <si>
@@ -84,70 +67,64 @@
     <t>Tên tổ chức</t>
   </si>
   <si>
-    <t>CÔNG TY CỔ PHẦN BẤT ĐỘNG SẢN FULLAND</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BẤT ĐỘNG SẢN WONDERLAND</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ CÔNG NGHỆ UNICLOUD</t>
-  </si>
-  <si>
     <t>CÔNG TY CỔ PHẦN ĐẦU TƯ KSFINANCE</t>
   </si>
   <si>
-    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ XÂY DỰNG SUNRISE VIỆT NAM</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ XÂY DỰNG XUÂN ĐỈNH</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN DỊCH VỤ THƯƠNG MAI S-MART</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN KINH DOANH NHÀ SUNSHINE</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN KS GROUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÔNG TY CỔ PHẦN PHÁT TRIỂN SUNSHINE HOMES </t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN PROPERTY HOMES</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN SAO ÁNH DƯƠNG</t>
-  </si>
-  <si>
-    <t>Công Ty Cổ Phần S-service Sài Gòn</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN SUNSHINE AM</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN SUNSHINE CAB</t>
-  </si>
-  <si>
-    <t>Ô tô</t>
-  </si>
-  <si>
-    <t>Xe máy</t>
-  </si>
-  <si>
-    <t>Xe máy điện</t>
-  </si>
-  <si>
-    <t>Xe đạp điện</t>
-  </si>
-  <si>
-    <t>Xe đạp</t>
+    <t>044454</t>
+  </si>
+  <si>
+    <t>Tập đoàn Công nghệ UniCloud</t>
+  </si>
+  <si>
+    <t>Lều Thị Kim Oanh</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Tập đoàn KSFinance</t>
+  </si>
+  <si>
+    <t>Công ty TNHH KDTM và DV Sunshine Mart</t>
+  </si>
+  <si>
+    <t>Tập đoàn Sunshine HN</t>
+  </si>
+  <si>
+    <t>CÔNG TY PHÁT TRIỂN SUNSHINE HOMES</t>
+  </si>
+  <si>
+    <t>Kiên Long Bank</t>
+  </si>
+  <si>
+    <t>Công ty KSS</t>
+  </si>
+  <si>
+    <t>Tập đoàn Sunshine HCM</t>
+  </si>
+  <si>
+    <t>Tập đoàn SCG</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Cafe's Plus</t>
+  </si>
+  <si>
+    <t>Công ty CP UMEE</t>
+  </si>
+  <si>
+    <t>Công ty S-Service</t>
+  </si>
+  <si>
+    <t>Công ty CP TĐ truyền thông và giải trí ODE</t>
+  </si>
+  <si>
+    <t>Hệ thống trường học Sunshine Maple Bear</t>
+  </si>
+  <si>
+    <t>Số điện thoại(*)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,8 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,25 +470,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E22B6FA-0AE2-475B-B4D1-7E5BC0AC134F}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="11" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -520,123 +503,47 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{0F7CB5B7-30E8-461A-8D3D-F4A85AC83DC0}">
-      <formula1>"True, False"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A46296E4-C4C0-4D66-AEB1-BA0AC161C5D8}">
-          <x14:formula1>
-            <xm:f>DM_ToChuc!$B$2:$B$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BFD48D2C-D753-45CD-A19A-FBF662417835}">
-          <x14:formula1>
-            <xm:f>Loaixe!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>K4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA58D255-F7DF-49FD-9DA8-6FB3153B68D3}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>965656565</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138213D6-E6CE-477B-87E3-A3C6EA96A227}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +652,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
